--- a/the/tt1.xlsx
+++ b/the/tt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\the\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F57536-C188-4DEC-AEEE-D936B33DF1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABFF03F-B386-4E11-AD35-32269E3321F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>额11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水水水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +360,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -364,6 +368,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
